--- a/config_debug/xiaoxiaole_sanguo_power_cfg.xlsx
+++ b/config_debug/xiaoxiaole_sanguo_power_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_5.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,6 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -144,18 +145,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -494,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -583,30 +587,6 @@
       </c>
       <c r="B10" s="5">
         <v>1920000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5120000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>10240000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>20480000</v>
       </c>
     </row>
   </sheetData>
@@ -3458,29 +3438,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="21"/>
-  <pixelatorList sheetStid="22"/>
-  <pixelatorList sheetStid="23"/>
-  <pixelatorList sheetStid="18"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="19"/>
-  <pixelatorList sheetStid="20"/>
-  <pixelatorList sheetStid="24"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="21" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="22" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="23" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="18" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="14" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="19" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="20" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="24" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3496,19 +3466,29 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="21" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="22" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="23" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="18" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="14" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="19" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="20" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="24" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="21"/>
+  <pixelatorList sheetStid="22"/>
+  <pixelatorList sheetStid="23"/>
+  <pixelatorList sheetStid="18"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="19"/>
+  <pixelatorList sheetStid="20"/>
+  <pixelatorList sheetStid="24"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3518,13 +3498,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3536,13 +3516,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>